--- a/dataanalysis/data/predictions/1000/07301016_1020.xlsx
+++ b/dataanalysis/data/predictions/1000/07301016_1020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="178">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-30</t>
   </si>
   <si>
@@ -545,12 +548,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -908,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AI89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,19 +1014,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.67</v>
@@ -1047,7 +1047,7 @@
         <v>28481.54</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1088,8 +1088,23 @@
       <c r="W2">
         <v>0.09</v>
       </c>
+      <c r="X2">
+        <v>5.77</v>
+      </c>
+      <c r="Y2">
+        <v>5.9</v>
+      </c>
+      <c r="Z2">
+        <v>13.03</v>
+      </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1097,22 +1112,25 @@
       <c r="AG2">
         <v>-0.09722995758056641</v>
       </c>
-      <c r="AH2" t="s">
-        <v>177</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.24</v>
@@ -1130,7 +1148,7 @@
         <v>16718.61</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1171,8 +1189,23 @@
       <c r="W3">
         <v>-0.22</v>
       </c>
+      <c r="X3">
+        <v>-2.51</v>
+      </c>
+      <c r="Y3">
+        <v>21.58</v>
+      </c>
+      <c r="Z3">
+        <v>-1.01</v>
+      </c>
       <c r="AC3" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1180,22 +1213,25 @@
       <c r="AG3">
         <v>5.961794853210449</v>
       </c>
-      <c r="AH3" t="s">
-        <v>177</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.17</v>
@@ -1213,7 +1249,7 @@
         <v>41068.84</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1254,8 +1290,23 @@
       <c r="W4">
         <v>-0.66</v>
       </c>
+      <c r="X4">
+        <v>1.77</v>
+      </c>
+      <c r="Y4">
+        <v>6.46</v>
+      </c>
+      <c r="Z4">
+        <v>0.62</v>
+      </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1263,22 +1314,25 @@
       <c r="AG4">
         <v>2.2286217212677</v>
       </c>
-      <c r="AH4" t="s">
-        <v>177</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.56</v>
@@ -1296,7 +1350,7 @@
         <v>49709.54</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1337,8 +1391,23 @@
       <c r="W5">
         <v>-0.4</v>
       </c>
+      <c r="X5">
+        <v>0.26</v>
+      </c>
+      <c r="Y5">
+        <v>43.05</v>
+      </c>
+      <c r="Z5">
+        <v>0.35</v>
+      </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1346,22 +1415,25 @@
       <c r="AG5">
         <v>4.675606727600098</v>
       </c>
-      <c r="AH5" t="s">
-        <v>177</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.1</v>
@@ -1379,7 +1451,7 @@
         <v>22894.52</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1420,8 +1492,23 @@
       <c r="W6">
         <v>-0.22</v>
       </c>
+      <c r="X6">
+        <v>-1.97</v>
+      </c>
+      <c r="Y6">
+        <v>6.16</v>
+      </c>
+      <c r="Z6">
+        <v>-2.38</v>
+      </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1429,22 +1516,25 @@
       <c r="AG6">
         <v>6.572944641113281</v>
       </c>
-      <c r="AH6" t="s">
-        <v>177</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1462,7 +1552,7 @@
         <v>43399.13</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1503,8 +1593,23 @@
       <c r="W7">
         <v>0.08</v>
       </c>
+      <c r="X7">
+        <v>-1.06</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>6.13</v>
+      </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1512,22 +1617,25 @@
       <c r="AG7">
         <v>2.690351009368896</v>
       </c>
-      <c r="AH7" t="s">
-        <v>177</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300127</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.33</v>
@@ -1545,7 +1653,7 @@
         <v>25935.5</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1586,8 +1694,23 @@
       <c r="W8">
         <v>-0.22</v>
       </c>
+      <c r="X8">
+        <v>-2.96</v>
+      </c>
+      <c r="Y8">
+        <v>30.24</v>
+      </c>
+      <c r="Z8">
+        <v>-0.98</v>
+      </c>
       <c r="AC8" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1595,22 +1718,25 @@
       <c r="AG8">
         <v>2.426727294921875</v>
       </c>
-      <c r="AH8" t="s">
-        <v>177</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300149</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.7</v>
@@ -1628,7 +1754,7 @@
         <v>142902.08</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1669,8 +1795,23 @@
       <c r="W9">
         <v>-1.46</v>
       </c>
+      <c r="X9">
+        <v>3.56</v>
+      </c>
+      <c r="Y9">
+        <v>14.91</v>
+      </c>
+      <c r="Z9">
+        <v>4.63</v>
+      </c>
       <c r="AC9" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1678,22 +1819,25 @@
       <c r="AG9">
         <v>8.719264030456543</v>
       </c>
-      <c r="AH9" t="s">
-        <v>177</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-5.85</v>
@@ -1711,7 +1855,7 @@
         <v>70045.78</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1752,8 +1896,23 @@
       <c r="W10">
         <v>-1.23</v>
       </c>
+      <c r="X10">
+        <v>16.64</v>
+      </c>
+      <c r="Y10">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>22.51</v>
+      </c>
       <c r="AC10" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1761,22 +1920,25 @@
       <c r="AG10">
         <v>10.36151695251465</v>
       </c>
-      <c r="AH10" t="s">
-        <v>177</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300188</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-8.19</v>
@@ -1794,7 +1956,7 @@
         <v>93788.85000000001</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1835,8 +1997,23 @@
       <c r="W11">
         <v>-0.57</v>
       </c>
+      <c r="X11">
+        <v>-5.13</v>
+      </c>
+      <c r="Y11">
+        <v>17.68</v>
+      </c>
+      <c r="Z11">
+        <v>-2</v>
+      </c>
       <c r="AC11" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1844,22 +2021,25 @@
       <c r="AG11">
         <v>4.579090595245361</v>
       </c>
-      <c r="AH11" t="s">
-        <v>177</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-0.9</v>
@@ -1877,7 +2057,7 @@
         <v>88637.69</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1918,8 +2098,23 @@
       <c r="W12">
         <v>-0.57</v>
       </c>
+      <c r="X12">
+        <v>7.02</v>
+      </c>
+      <c r="Y12">
+        <v>21.09</v>
+      </c>
+      <c r="Z12">
+        <v>6.03</v>
+      </c>
       <c r="AC12" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1927,22 +2122,25 @@
       <c r="AG12">
         <v>4.12632942199707</v>
       </c>
-      <c r="AH12" t="s">
-        <v>177</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.57</v>
@@ -1960,7 +2158,7 @@
         <v>32050.42</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2001,8 +2199,23 @@
       <c r="W13">
         <v>-0.03</v>
       </c>
+      <c r="X13">
+        <v>-1.73</v>
+      </c>
+      <c r="Y13">
+        <v>16.28</v>
+      </c>
+      <c r="Z13">
+        <v>0.06</v>
+      </c>
       <c r="AC13" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2010,22 +2223,25 @@
       <c r="AG13">
         <v>10.9367790222168</v>
       </c>
-      <c r="AH13" t="s">
-        <v>177</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.55</v>
@@ -2043,7 +2259,7 @@
         <v>26675.88</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2084,8 +2300,23 @@
       <c r="W14">
         <v>-0.44</v>
       </c>
+      <c r="X14">
+        <v>7.09</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>12.18</v>
+      </c>
       <c r="AC14" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2093,22 +2324,25 @@
       <c r="AG14">
         <v>-0.3447036445140839</v>
       </c>
-      <c r="AH14" t="s">
-        <v>177</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>10.09</v>
@@ -2126,7 +2360,7 @@
         <v>84785.32000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2167,8 +2401,23 @@
       <c r="W15">
         <v>0.39</v>
       </c>
+      <c r="X15">
+        <v>4.92</v>
+      </c>
+      <c r="Y15">
+        <v>4.82</v>
+      </c>
+      <c r="Z15">
+        <v>2.77</v>
+      </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2176,22 +2425,25 @@
       <c r="AG15">
         <v>3.885586500167847</v>
       </c>
-      <c r="AH15" t="s">
-        <v>177</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-2.88</v>
@@ -2209,7 +2461,7 @@
         <v>58953.93</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2250,8 +2502,23 @@
       <c r="W16">
         <v>-1.01</v>
       </c>
+      <c r="X16">
+        <v>4.56</v>
+      </c>
+      <c r="Y16">
+        <v>21.48</v>
+      </c>
+      <c r="Z16">
+        <v>18.15</v>
+      </c>
       <c r="AC16" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2259,22 +2526,25 @@
       <c r="AG16">
         <v>6.466368198394775</v>
       </c>
-      <c r="AH16" t="s">
-        <v>177</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.12</v>
@@ -2292,7 +2562,7 @@
         <v>50134.69</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -2333,8 +2603,23 @@
       <c r="W17">
         <v>-0.39</v>
       </c>
+      <c r="X17">
+        <v>-2.06</v>
+      </c>
+      <c r="Y17">
+        <v>24.7</v>
+      </c>
+      <c r="Z17">
+        <v>-0.96</v>
+      </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2342,22 +2627,25 @@
       <c r="AG17">
         <v>2.010599374771118</v>
       </c>
-      <c r="AH17" t="s">
-        <v>177</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300378</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.83</v>
@@ -2375,7 +2663,7 @@
         <v>48616.93</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2416,8 +2704,23 @@
       <c r="W18">
         <v>-0.24</v>
       </c>
+      <c r="X18">
+        <v>6.98</v>
+      </c>
+      <c r="Y18">
+        <v>56.5</v>
+      </c>
+      <c r="Z18">
+        <v>16.66</v>
+      </c>
       <c r="AC18" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2425,22 +2728,25 @@
       <c r="AG18">
         <v>7.697725296020508</v>
       </c>
-      <c r="AH18" t="s">
-        <v>177</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300410</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-5.33</v>
@@ -2458,7 +2764,7 @@
         <v>33485.87</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2499,8 +2805,23 @@
       <c r="W19">
         <v>-1.31</v>
       </c>
+      <c r="X19">
+        <v>-0.12</v>
+      </c>
+      <c r="Y19">
+        <v>9.85</v>
+      </c>
+      <c r="Z19">
+        <v>15.61</v>
+      </c>
       <c r="AC19" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2508,22 +2829,25 @@
       <c r="AG19">
         <v>-0.5222698450088501</v>
       </c>
-      <c r="AH19" t="s">
-        <v>177</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300414</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.06</v>
@@ -2541,7 +2865,7 @@
         <v>55039.6</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20">
         <v>13</v>
@@ -2582,8 +2906,23 @@
       <c r="W20">
         <v>-0.93</v>
       </c>
+      <c r="X20">
+        <v>-3.36</v>
+      </c>
+      <c r="Y20">
+        <v>16.01</v>
+      </c>
+      <c r="Z20">
+        <v>1.97</v>
+      </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2591,22 +2930,25 @@
       <c r="AG20">
         <v>2.461959362030029</v>
       </c>
-      <c r="AH20" t="s">
-        <v>177</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300434</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>9.449999999999999</v>
@@ -2624,7 +2966,7 @@
         <v>49682.67</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2665,8 +3007,23 @@
       <c r="W21">
         <v>0.15</v>
       </c>
+      <c r="X21">
+        <v>-2.67</v>
+      </c>
+      <c r="Y21">
+        <v>11.75</v>
+      </c>
+      <c r="Z21">
+        <v>-1.51</v>
+      </c>
       <c r="AC21" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2674,22 +3031,25 @@
       <c r="AG21">
         <v>5.550037860870361</v>
       </c>
-      <c r="AH21" t="s">
-        <v>177</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300436</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.47</v>
@@ -2707,7 +3067,7 @@
         <v>73261.11</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -2748,8 +3108,23 @@
       <c r="W22">
         <v>0.09</v>
       </c>
+      <c r="X22">
+        <v>18.04</v>
+      </c>
+      <c r="Y22">
+        <v>116.4</v>
+      </c>
+      <c r="Z22">
+        <v>25.63</v>
+      </c>
       <c r="AC22" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2757,22 +3132,25 @@
       <c r="AG22">
         <v>2.597875356674194</v>
       </c>
-      <c r="AH22" t="s">
-        <v>177</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300469</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2790,7 +3168,7 @@
         <v>17573.4</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23">
         <v>12</v>
@@ -2831,8 +3209,23 @@
       <c r="W23">
         <v>0.03</v>
       </c>
+      <c r="X23">
+        <v>0.19</v>
+      </c>
+      <c r="Y23">
+        <v>48.73</v>
+      </c>
+      <c r="Z23">
+        <v>3.88</v>
+      </c>
       <c r="AC23" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2840,22 +3233,25 @@
       <c r="AG23">
         <v>2.405001401901245</v>
       </c>
-      <c r="AH23" t="s">
-        <v>177</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300485</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-1.16</v>
@@ -2873,7 +3269,7 @@
         <v>27130.71</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2914,8 +3310,23 @@
       <c r="W24">
         <v>-0.38</v>
       </c>
+      <c r="X24">
+        <v>0.8</v>
+      </c>
+      <c r="Y24">
+        <v>15.8</v>
+      </c>
+      <c r="Z24">
+        <v>2.8</v>
+      </c>
       <c r="AC24" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2923,22 +3334,25 @@
       <c r="AG24">
         <v>1.21969473361969</v>
       </c>
-      <c r="AH24" t="s">
-        <v>177</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300505</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.43</v>
@@ -2956,7 +3370,7 @@
         <v>29836.44</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2997,8 +3411,23 @@
       <c r="W25">
         <v>0.01</v>
       </c>
+      <c r="X25">
+        <v>0.1</v>
+      </c>
+      <c r="Y25">
+        <v>21.07</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
       <c r="AC25" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3006,22 +3435,25 @@
       <c r="AG25">
         <v>3.716088771820068</v>
       </c>
-      <c r="AH25" t="s">
-        <v>177</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300522</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.24</v>
@@ -3039,7 +3471,7 @@
         <v>12357.98</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3080,8 +3512,23 @@
       <c r="W26">
         <v>-0.51</v>
       </c>
+      <c r="X26">
+        <v>0.4</v>
+      </c>
+      <c r="Y26">
+        <v>15.89</v>
+      </c>
+      <c r="Z26">
+        <v>6.29</v>
+      </c>
       <c r="AC26" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3089,22 +3536,25 @@
       <c r="AG26">
         <v>6.237405776977539</v>
       </c>
-      <c r="AH26" t="s">
-        <v>177</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300527</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.27</v>
@@ -3122,7 +3572,7 @@
         <v>52177.94</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K27">
         <v>22</v>
@@ -3163,8 +3613,23 @@
       <c r="W27">
         <v>-0.28</v>
       </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>-100</v>
+      </c>
       <c r="AC27" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3172,22 +3637,25 @@
       <c r="AG27">
         <v>5.164603233337402</v>
       </c>
-      <c r="AH27" t="s">
-        <v>177</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300528</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>20</v>
@@ -3205,7 +3673,7 @@
         <v>149886.18</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -3246,8 +3714,23 @@
       <c r="W28">
         <v>-2.14</v>
       </c>
+      <c r="X28">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y28">
+        <v>28.26</v>
+      </c>
+      <c r="Z28">
+        <v>11.61</v>
+      </c>
       <c r="AC28" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3255,22 +3738,25 @@
       <c r="AG28">
         <v>11.05735015869141</v>
       </c>
-      <c r="AH28" t="s">
-        <v>177</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300533</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.52</v>
@@ -3288,7 +3774,7 @@
         <v>34545.98</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K29">
         <v>26</v>
@@ -3329,8 +3815,23 @@
       <c r="W29">
         <v>-0.62</v>
       </c>
+      <c r="X29">
+        <v>-4.84</v>
+      </c>
+      <c r="Y29">
+        <v>37.8</v>
+      </c>
+      <c r="Z29">
+        <v>2.36</v>
+      </c>
       <c r="AC29" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3338,22 +3839,25 @@
       <c r="AG29">
         <v>4.146873950958252</v>
       </c>
-      <c r="AH29" t="s">
-        <v>177</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300537</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.68</v>
@@ -3371,7 +3875,7 @@
         <v>27031.69</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3412,8 +3916,23 @@
       <c r="W30">
         <v>0.39</v>
       </c>
+      <c r="X30">
+        <v>-3.12</v>
+      </c>
+      <c r="Y30">
+        <v>27.02</v>
+      </c>
+      <c r="Z30">
+        <v>1.5</v>
+      </c>
       <c r="AC30" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3421,22 +3940,25 @@
       <c r="AG30">
         <v>4.581170558929443</v>
       </c>
-      <c r="AH30" t="s">
-        <v>177</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300539</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.75</v>
@@ -3454,7 +3976,7 @@
         <v>58529.8</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3495,8 +4017,23 @@
       <c r="W31">
         <v>0.9</v>
       </c>
+      <c r="X31">
+        <v>-2.03</v>
+      </c>
+      <c r="Y31">
+        <v>29</v>
+      </c>
+      <c r="Z31">
+        <v>1.08</v>
+      </c>
       <c r="AC31" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3504,22 +4041,25 @@
       <c r="AG31">
         <v>5.641765117645264</v>
       </c>
-      <c r="AH31" t="s">
-        <v>177</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300548</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.29</v>
@@ -3537,7 +4077,7 @@
         <v>95401.95</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K32">
         <v>12</v>
@@ -3578,8 +4118,23 @@
       <c r="W32">
         <v>-0.4</v>
       </c>
+      <c r="X32">
+        <v>-5.2</v>
+      </c>
+      <c r="Y32">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="Z32">
+        <v>5.02</v>
+      </c>
       <c r="AC32" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3587,22 +4142,25 @@
       <c r="AG32">
         <v>6.957611083984375</v>
       </c>
-      <c r="AH32" t="s">
-        <v>177</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300581</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.19</v>
@@ -3620,7 +4178,7 @@
         <v>113151.58</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3661,8 +4219,23 @@
       <c r="W33">
         <v>-0.92</v>
       </c>
+      <c r="X33">
+        <v>2.58</v>
+      </c>
+      <c r="Y33">
+        <v>22.99</v>
+      </c>
+      <c r="Z33">
+        <v>2.82</v>
+      </c>
       <c r="AC33" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3670,22 +4243,25 @@
       <c r="AG33">
         <v>1.970506191253662</v>
       </c>
-      <c r="AH33" t="s">
-        <v>177</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300588</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-6.6</v>
@@ -3703,7 +4279,7 @@
         <v>27638.41</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3744,8 +4320,23 @@
       <c r="W34">
         <v>-0.18</v>
       </c>
+      <c r="X34">
+        <v>3.66</v>
+      </c>
+      <c r="Y34">
+        <v>21.12</v>
+      </c>
+      <c r="Z34">
+        <v>12.22</v>
+      </c>
       <c r="AC34" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3753,22 +4344,25 @@
       <c r="AG34">
         <v>4.892916202545166</v>
       </c>
-      <c r="AH34" t="s">
-        <v>177</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300600</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>15.29</v>
@@ -3786,7 +4380,7 @@
         <v>107918.91</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3827,8 +4421,23 @@
       <c r="W35">
         <v>3.94</v>
       </c>
+      <c r="X35">
+        <v>-5.71</v>
+      </c>
+      <c r="Y35">
+        <v>17.44</v>
+      </c>
+      <c r="Z35">
+        <v>-3.65</v>
+      </c>
       <c r="AC35" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3836,22 +4445,25 @@
       <c r="AG35">
         <v>3.998975038528442</v>
       </c>
-      <c r="AH35" t="s">
-        <v>178</v>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300631</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-0.44</v>
@@ -3869,7 +4481,7 @@
         <v>15662.64</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K36">
         <v>13</v>
@@ -3910,8 +4522,23 @@
       <c r="W36">
         <v>-0.09</v>
       </c>
+      <c r="X36">
+        <v>-1.95</v>
+      </c>
+      <c r="Y36">
+        <v>31.28</v>
+      </c>
+      <c r="Z36">
+        <v>-1.01</v>
+      </c>
       <c r="AC36" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3919,22 +4546,25 @@
       <c r="AG36">
         <v>5.501129150390625</v>
       </c>
-      <c r="AH36" t="s">
-        <v>177</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300644</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.09</v>
@@ -3952,7 +4582,7 @@
         <v>22815.35</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>10</v>
@@ -3993,8 +4623,23 @@
       <c r="W37">
         <v>-0.92</v>
       </c>
+      <c r="X37">
+        <v>-1.07</v>
+      </c>
+      <c r="Y37">
+        <v>33.5</v>
+      </c>
+      <c r="Z37">
+        <v>1.55</v>
+      </c>
       <c r="AC37" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4002,22 +4647,25 @@
       <c r="AG37">
         <v>4.652910232543945</v>
       </c>
-      <c r="AH37" t="s">
-        <v>177</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300683</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-4.17</v>
@@ -4035,7 +4683,7 @@
         <v>39798.58</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -4076,8 +4724,23 @@
       <c r="W38">
         <v>-0.6</v>
       </c>
+      <c r="X38">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>58.99</v>
+      </c>
+      <c r="Z38">
+        <v>21.63</v>
+      </c>
       <c r="AC38" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4085,22 +4748,25 @@
       <c r="AG38">
         <v>2.839809894561768</v>
       </c>
-      <c r="AH38" t="s">
-        <v>177</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300684</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.78</v>
@@ -4118,7 +4784,7 @@
         <v>34961.78</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4159,8 +4825,23 @@
       <c r="W39">
         <v>-0.57</v>
       </c>
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+      <c r="Y39">
+        <v>31.1</v>
+      </c>
+      <c r="Z39">
+        <v>4.4</v>
+      </c>
       <c r="AC39" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4168,22 +4849,25 @@
       <c r="AG39">
         <v>2.790668725967407</v>
       </c>
-      <c r="AH39" t="s">
-        <v>177</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300706</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>4.35</v>
@@ -4201,7 +4885,7 @@
         <v>88927.99000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4242,8 +4926,23 @@
       <c r="W40">
         <v>-0.44</v>
       </c>
+      <c r="X40">
+        <v>-4.53</v>
+      </c>
+      <c r="Y40">
+        <v>38.33</v>
+      </c>
+      <c r="Z40">
+        <v>6.41</v>
+      </c>
       <c r="AC40" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4251,22 +4950,25 @@
       <c r="AG40">
         <v>1.111882448196411</v>
       </c>
-      <c r="AH40" t="s">
-        <v>177</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300722</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.12</v>
@@ -4284,7 +4986,7 @@
         <v>37773.19</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4325,8 +5027,23 @@
       <c r="W41">
         <v>-0.36</v>
       </c>
+      <c r="X41">
+        <v>0.28</v>
+      </c>
+      <c r="Y41">
+        <v>39.87</v>
+      </c>
+      <c r="Z41">
+        <v>1.84</v>
+      </c>
       <c r="AC41" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4334,22 +5051,25 @@
       <c r="AG41">
         <v>5.552145004272461</v>
       </c>
-      <c r="AH41" t="s">
-        <v>177</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300725</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.99</v>
@@ -4367,7 +5087,7 @@
         <v>88155.46000000001</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4408,8 +5128,23 @@
       <c r="W42">
         <v>-0.34</v>
       </c>
+      <c r="X42">
+        <v>-0.08</v>
+      </c>
+      <c r="Y42">
+        <v>51.47</v>
+      </c>
+      <c r="Z42">
+        <v>2.02</v>
+      </c>
       <c r="AC42" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4417,22 +5152,25 @@
       <c r="AG42">
         <v>4.123483657836914</v>
       </c>
-      <c r="AH42" t="s">
-        <v>177</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300732</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -4450,7 +5188,7 @@
         <v>52865.44</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4491,8 +5229,23 @@
       <c r="W43">
         <v>3.37</v>
       </c>
+      <c r="X43">
+        <v>7.91</v>
+      </c>
+      <c r="Y43">
+        <v>12.74</v>
+      </c>
+      <c r="Z43">
+        <v>19.96</v>
+      </c>
       <c r="AC43" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4500,22 +5253,25 @@
       <c r="AG43">
         <v>13.61357498168945</v>
       </c>
-      <c r="AH43" t="s">
-        <v>178</v>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300747</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.7</v>
@@ -4533,7 +5289,7 @@
         <v>35461.1</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K44">
         <v>10</v>
@@ -4574,8 +5330,23 @@
       <c r="W44">
         <v>-0.1</v>
       </c>
+      <c r="X44">
+        <v>-0.9</v>
+      </c>
+      <c r="Y44">
+        <v>30.76</v>
+      </c>
+      <c r="Z44">
+        <v>4.06</v>
+      </c>
       <c r="AC44" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4583,22 +5354,25 @@
       <c r="AG44">
         <v>6.814258575439453</v>
       </c>
-      <c r="AH44" t="s">
-        <v>177</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300748</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.64</v>
@@ -4616,7 +5390,7 @@
         <v>63922.02</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K45">
         <v>14</v>
@@ -4657,8 +5431,23 @@
       <c r="W45">
         <v>-0.25</v>
       </c>
+      <c r="X45">
+        <v>0.11</v>
+      </c>
+      <c r="Y45">
+        <v>27.82</v>
+      </c>
+      <c r="Z45">
+        <v>0.54</v>
+      </c>
       <c r="AC45" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4666,22 +5455,25 @@
       <c r="AG45">
         <v>7.716320037841797</v>
       </c>
-      <c r="AH45" t="s">
-        <v>177</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300803</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-2.41</v>
@@ -4699,7 +5491,7 @@
         <v>119039.04</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46">
         <v>24</v>
@@ -4740,8 +5532,23 @@
       <c r="W46">
         <v>-0.3</v>
       </c>
+      <c r="X46">
+        <v>-3.5</v>
+      </c>
+      <c r="Y46">
+        <v>92.67</v>
+      </c>
+      <c r="Z46">
+        <v>1.13</v>
+      </c>
       <c r="AC46" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4749,22 +5556,25 @@
       <c r="AG46">
         <v>3.808023929595947</v>
       </c>
-      <c r="AH46" t="s">
-        <v>177</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300835</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.87</v>
@@ -4782,7 +5592,7 @@
         <v>24479.06</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -4823,8 +5633,23 @@
       <c r="W47">
         <v>0.23</v>
       </c>
+      <c r="X47">
+        <v>0.92</v>
+      </c>
+      <c r="Y47">
+        <v>60.19</v>
+      </c>
+      <c r="Z47">
+        <v>1.74</v>
+      </c>
       <c r="AC47" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4832,22 +5657,25 @@
       <c r="AG47">
         <v>2.000733613967896</v>
       </c>
-      <c r="AH47" t="s">
-        <v>177</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300869</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>11.24</v>
@@ -4865,7 +5693,7 @@
         <v>67096.25999999999</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4906,8 +5734,23 @@
       <c r="W48">
         <v>1.24</v>
       </c>
+      <c r="X48">
+        <v>1.07</v>
+      </c>
+      <c r="Y48">
+        <v>21.06</v>
+      </c>
+      <c r="Z48">
+        <v>1.35</v>
+      </c>
       <c r="AC48" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4915,22 +5758,25 @@
       <c r="AG48">
         <v>2.585644960403442</v>
       </c>
-      <c r="AH48" t="s">
-        <v>177</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300872</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-6.68</v>
@@ -4948,7 +5794,7 @@
         <v>85516.74000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -4989,8 +5835,23 @@
       <c r="W49">
         <v>-1.43</v>
       </c>
+      <c r="X49">
+        <v>-1.97</v>
+      </c>
+      <c r="Y49">
+        <v>25.86</v>
+      </c>
+      <c r="Z49">
+        <v>0.08</v>
+      </c>
       <c r="AC49" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4998,22 +5859,25 @@
       <c r="AG49">
         <v>1.718304753303528</v>
       </c>
-      <c r="AH49" t="s">
-        <v>177</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300885</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.63</v>
@@ -5031,7 +5895,7 @@
         <v>62030.22</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5072,8 +5936,23 @@
       <c r="W50">
         <v>-1.97</v>
       </c>
+      <c r="X50">
+        <v>-0.99</v>
+      </c>
+      <c r="Y50">
+        <v>25.54</v>
+      </c>
+      <c r="Z50">
+        <v>21.33</v>
+      </c>
       <c r="AC50" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5081,22 +5960,25 @@
       <c r="AG50">
         <v>0.6707746386528015</v>
       </c>
-      <c r="AH50" t="s">
-        <v>177</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300903</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.7</v>
@@ -5114,7 +5996,7 @@
         <v>19939.99</v>
       </c>
       <c r="J51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5155,8 +6037,23 @@
       <c r="W51">
         <v>-0.51</v>
       </c>
+      <c r="X51">
+        <v>-1.08</v>
+      </c>
+      <c r="Y51">
+        <v>12.78</v>
+      </c>
+      <c r="Z51">
+        <v>7.39</v>
+      </c>
       <c r="AC51" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5164,22 +6061,25 @@
       <c r="AG51">
         <v>5.796033382415771</v>
       </c>
-      <c r="AH51" t="s">
-        <v>177</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300950</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-4.97</v>
@@ -5197,7 +6097,7 @@
         <v>13920.67</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5238,8 +6138,23 @@
       <c r="W52">
         <v>-0.68</v>
       </c>
+      <c r="X52">
+        <v>-1.88</v>
+      </c>
+      <c r="Y52">
+        <v>30.86</v>
+      </c>
+      <c r="Z52">
+        <v>3.49</v>
+      </c>
       <c r="AC52" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5247,22 +6162,25 @@
       <c r="AG52">
         <v>2.124758005142212</v>
       </c>
-      <c r="AH52" t="s">
-        <v>177</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300987</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.66</v>
@@ -5280,7 +6198,7 @@
         <v>21760.81</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5321,8 +6239,23 @@
       <c r="W53">
         <v>-0.05</v>
       </c>
+      <c r="X53">
+        <v>-1.39</v>
+      </c>
+      <c r="Y53">
+        <v>22.79</v>
+      </c>
+      <c r="Z53">
+        <v>3.54</v>
+      </c>
       <c r="AC53" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5330,22 +6263,25 @@
       <c r="AG53">
         <v>1.434656262397766</v>
       </c>
-      <c r="AH53" t="s">
-        <v>177</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301007</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>1.73</v>
@@ -5363,7 +6299,7 @@
         <v>39532.52</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5404,8 +6340,23 @@
       <c r="W54">
         <v>-0.51</v>
       </c>
+      <c r="X54">
+        <v>-0.05</v>
+      </c>
+      <c r="Y54">
+        <v>39.68</v>
+      </c>
+      <c r="Z54">
+        <v>2.11</v>
+      </c>
       <c r="AC54" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5413,22 +6364,25 @@
       <c r="AG54">
         <v>0.9397448897361755</v>
       </c>
-      <c r="AH54" t="s">
-        <v>177</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301038</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>9.33</v>
@@ -5446,7 +6400,7 @@
         <v>77330.16</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5487,8 +6441,23 @@
       <c r="W55">
         <v>-0.04</v>
       </c>
+      <c r="X55">
+        <v>-10</v>
+      </c>
+      <c r="Y55">
+        <v>32.5</v>
+      </c>
+      <c r="Z55">
+        <v>-3.07</v>
+      </c>
       <c r="AC55" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5496,22 +6465,25 @@
       <c r="AG55">
         <v>3.777669906616211</v>
       </c>
-      <c r="AH55" t="s">
-        <v>177</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301132</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.9</v>
@@ -5529,7 +6501,7 @@
         <v>18596.03</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5570,8 +6542,23 @@
       <c r="W56">
         <v>-1.23</v>
       </c>
+      <c r="X56">
+        <v>-3.2</v>
+      </c>
+      <c r="Y56">
+        <v>40.51</v>
+      </c>
+      <c r="Z56">
+        <v>4.81</v>
+      </c>
       <c r="AC56" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5579,22 +6566,25 @@
       <c r="AG56">
         <v>3.959757328033447</v>
       </c>
-      <c r="AH56" t="s">
-        <v>177</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301150</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-4.56</v>
@@ -5612,7 +6602,7 @@
         <v>20772.49</v>
       </c>
       <c r="J57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5653,8 +6643,23 @@
       <c r="W57">
         <v>-0.75</v>
       </c>
+      <c r="X57">
+        <v>11.69</v>
+      </c>
+      <c r="Y57">
+        <v>30.5</v>
+      </c>
+      <c r="Z57">
+        <v>18.54</v>
+      </c>
       <c r="AC57" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5662,22 +6667,25 @@
       <c r="AG57">
         <v>2.712827205657959</v>
       </c>
-      <c r="AH57" t="s">
-        <v>177</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301151</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>8.73</v>
@@ -5695,7 +6703,7 @@
         <v>35209.02</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5736,8 +6744,23 @@
       <c r="W58">
         <v>0.49</v>
       </c>
+      <c r="X58">
+        <v>-3.55</v>
+      </c>
+      <c r="Y58">
+        <v>24.32</v>
+      </c>
+      <c r="Z58">
+        <v>-2.33</v>
+      </c>
       <c r="AC58" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5745,22 +6768,25 @@
       <c r="AG58">
         <v>4.788089275360107</v>
       </c>
-      <c r="AH58" t="s">
-        <v>177</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301161</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.21</v>
@@ -5778,7 +6804,7 @@
         <v>24674.6</v>
       </c>
       <c r="J59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5819,8 +6845,23 @@
       <c r="W59">
         <v>-0.97</v>
       </c>
+      <c r="X59">
+        <v>-4.1</v>
+      </c>
+      <c r="Y59">
+        <v>29.5</v>
+      </c>
+      <c r="Z59">
+        <v>-1.7</v>
+      </c>
       <c r="AC59" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5828,22 +6869,25 @@
       <c r="AG59">
         <v>3.684265375137329</v>
       </c>
-      <c r="AH59" t="s">
-        <v>177</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301183</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-2.03</v>
@@ -5861,7 +6905,7 @@
         <v>28493.77</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K60">
         <v>11</v>
@@ -5902,8 +6946,23 @@
       <c r="W60">
         <v>-0.85</v>
       </c>
+      <c r="X60">
+        <v>5.94</v>
+      </c>
+      <c r="Y60">
+        <v>74.3</v>
+      </c>
+      <c r="Z60">
+        <v>13.04</v>
+      </c>
       <c r="AC60" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5911,22 +6970,25 @@
       <c r="AG60">
         <v>2.038016080856323</v>
       </c>
-      <c r="AH60" t="s">
-        <v>177</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301200</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-6.63</v>
@@ -5944,7 +7006,7 @@
         <v>33464.61</v>
       </c>
       <c r="J61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5985,8 +7047,23 @@
       <c r="W61">
         <v>-0.36</v>
       </c>
+      <c r="X61">
+        <v>9.76</v>
+      </c>
+      <c r="Y61">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>24.74</v>
+      </c>
       <c r="AC61" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5994,22 +7071,25 @@
       <c r="AG61">
         <v>3.185894012451172</v>
       </c>
-      <c r="AH61" t="s">
-        <v>177</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301217</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.49</v>
@@ -6027,7 +7107,7 @@
         <v>85843.19</v>
       </c>
       <c r="J62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K62">
         <v>18</v>
@@ -6068,8 +7148,23 @@
       <c r="W62">
         <v>-0.16</v>
       </c>
+      <c r="X62">
+        <v>-2.07</v>
+      </c>
+      <c r="Y62">
+        <v>27.6</v>
+      </c>
+      <c r="Z62">
+        <v>3.56</v>
+      </c>
       <c r="AC62" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6077,22 +7172,25 @@
       <c r="AG62">
         <v>2.458751440048218</v>
       </c>
-      <c r="AH62" t="s">
-        <v>177</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301285</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-6.91</v>
@@ -6110,7 +7208,7 @@
         <v>34059.5</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6151,8 +7249,23 @@
       <c r="W63">
         <v>0.04</v>
       </c>
+      <c r="X63">
+        <v>-2.92</v>
+      </c>
+      <c r="Y63">
+        <v>43</v>
+      </c>
+      <c r="Z63">
+        <v>4.72</v>
+      </c>
       <c r="AC63" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6160,22 +7273,25 @@
       <c r="AG63">
         <v>-1.230254173278809</v>
       </c>
-      <c r="AH63" t="s">
-        <v>177</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301306</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-1.67</v>
@@ -6193,7 +7309,7 @@
         <v>20696.38</v>
       </c>
       <c r="J64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6234,8 +7350,23 @@
       <c r="W64">
         <v>-0.88</v>
       </c>
+      <c r="X64">
+        <v>-4.09</v>
+      </c>
+      <c r="Y64">
+        <v>67.03</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
       <c r="AC64" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6243,22 +7374,25 @@
       <c r="AG64">
         <v>3.365270376205444</v>
       </c>
-      <c r="AH64" t="s">
-        <v>177</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301345</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-1.89</v>
@@ -6276,7 +7410,7 @@
         <v>23205.85</v>
       </c>
       <c r="J65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6317,8 +7451,23 @@
       <c r="W65">
         <v>-0.16</v>
       </c>
+      <c r="X65">
+        <v>-2.23</v>
+      </c>
+      <c r="Y65">
+        <v>164.37</v>
+      </c>
+      <c r="Z65">
+        <v>3.83</v>
+      </c>
       <c r="AC65" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6326,22 +7475,25 @@
       <c r="AG65">
         <v>6.970567226409912</v>
       </c>
-      <c r="AH65" t="s">
-        <v>177</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301357</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-0.41</v>
@@ -6359,7 +7511,7 @@
         <v>66287.44</v>
       </c>
       <c r="J66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6400,8 +7552,23 @@
       <c r="W66">
         <v>-2.76</v>
       </c>
+      <c r="X66">
+        <v>17.22</v>
+      </c>
+      <c r="Y66">
+        <v>105</v>
+      </c>
+      <c r="Z66">
+        <v>20.69</v>
+      </c>
       <c r="AC66" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6409,22 +7576,25 @@
       <c r="AG66">
         <v>-0.06823354959487915</v>
       </c>
-      <c r="AH66" t="s">
-        <v>177</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301377</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-3.65</v>
@@ -6442,7 +7612,7 @@
         <v>21759.77</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -6483,8 +7653,23 @@
       <c r="W67">
         <v>-0.02</v>
       </c>
+      <c r="X67">
+        <v>-1.38</v>
+      </c>
+      <c r="Y67">
+        <v>57.5</v>
+      </c>
+      <c r="Z67">
+        <v>8.51</v>
+      </c>
       <c r="AC67" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6492,22 +7677,25 @@
       <c r="AG67">
         <v>4.432446002960205</v>
       </c>
-      <c r="AH67" t="s">
-        <v>177</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301389</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.1</v>
@@ -6525,7 +7713,7 @@
         <v>29567.55</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K68">
         <v>17</v>
@@ -6566,8 +7754,23 @@
       <c r="W68">
         <v>-0.84</v>
       </c>
+      <c r="X68">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>39.44</v>
+      </c>
+      <c r="Z68">
+        <v>11.44</v>
+      </c>
       <c r="AC68" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6575,22 +7778,25 @@
       <c r="AG68">
         <v>3.373790979385376</v>
       </c>
-      <c r="AH68" t="s">
-        <v>177</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301392</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>2.5</v>
@@ -6608,7 +7814,7 @@
         <v>27143.66</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6649,8 +7855,23 @@
       <c r="W69">
         <v>0.26</v>
       </c>
+      <c r="X69">
+        <v>-4.58</v>
+      </c>
+      <c r="Y69">
+        <v>167.2</v>
+      </c>
+      <c r="Z69">
+        <v>1.95</v>
+      </c>
       <c r="AC69" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6658,22 +7879,25 @@
       <c r="AG69">
         <v>3.854081630706787</v>
       </c>
-      <c r="AH69" t="s">
-        <v>178</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301421</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-1.11</v>
@@ -6691,7 +7915,7 @@
         <v>18035.39</v>
       </c>
       <c r="J70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K70">
         <v>28</v>
@@ -6732,8 +7956,23 @@
       <c r="W70">
         <v>-0.29</v>
       </c>
+      <c r="X70">
+        <v>-3.68</v>
+      </c>
+      <c r="Y70">
+        <v>78.5</v>
+      </c>
+      <c r="Z70">
+        <v>1.36</v>
+      </c>
       <c r="AC70" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6741,22 +7980,25 @@
       <c r="AG70">
         <v>1.95786440372467</v>
       </c>
-      <c r="AH70" t="s">
-        <v>177</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301511</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-0.03</v>
@@ -6774,7 +8016,7 @@
         <v>120705.96</v>
       </c>
       <c r="J71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K71">
         <v>27</v>
@@ -6815,8 +8057,23 @@
       <c r="W71">
         <v>0.68</v>
       </c>
+      <c r="X71">
+        <v>1.5</v>
+      </c>
+      <c r="Y71">
+        <v>38.35</v>
+      </c>
+      <c r="Z71">
+        <v>12.33</v>
+      </c>
       <c r="AC71" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>1</v>
@@ -6824,22 +8081,25 @@
       <c r="AG71">
         <v>9.207776069641113</v>
       </c>
-      <c r="AH71" t="s">
-        <v>177</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301526</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.2</v>
@@ -6857,7 +8117,7 @@
         <v>24278.4</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K72">
         <v>17</v>
@@ -6898,8 +8158,23 @@
       <c r="W72">
         <v>-0.57</v>
       </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>5.09</v>
+      </c>
+      <c r="Z72">
+        <v>4.09</v>
+      </c>
       <c r="AC72" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6907,22 +8182,25 @@
       <c r="AG72">
         <v>4.629715919494629</v>
       </c>
-      <c r="AH72" t="s">
-        <v>177</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301580</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-0.54</v>
@@ -6940,7 +8218,7 @@
         <v>20747.5</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -6981,8 +8259,23 @@
       <c r="W73">
         <v>0.13</v>
       </c>
+      <c r="X73">
+        <v>-2.63</v>
+      </c>
+      <c r="Y73">
+        <v>51.61</v>
+      </c>
+      <c r="Z73">
+        <v>-2.84</v>
+      </c>
       <c r="AC73" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6990,22 +8283,25 @@
       <c r="AG73">
         <v>9.33949089050293</v>
       </c>
-      <c r="AH73" t="s">
-        <v>177</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688020</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-4.3</v>
@@ -7023,7 +8319,7 @@
         <v>42950.97</v>
       </c>
       <c r="J74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7064,8 +8360,23 @@
       <c r="W74">
         <v>-0.89</v>
       </c>
+      <c r="X74">
+        <v>2.12</v>
+      </c>
+      <c r="Y74">
+        <v>62.5</v>
+      </c>
+      <c r="Z74">
+        <v>15.44</v>
+      </c>
       <c r="AC74" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7073,22 +8384,25 @@
       <c r="AG74">
         <v>6.607834339141846</v>
       </c>
-      <c r="AH74" t="s">
-        <v>177</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688062</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>0.74</v>
@@ -7106,7 +8420,7 @@
         <v>24503.07</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7147,8 +8461,23 @@
       <c r="W75">
         <v>0.1</v>
       </c>
+      <c r="X75">
+        <v>3.88</v>
+      </c>
+      <c r="Y75">
+        <v>37</v>
+      </c>
+      <c r="Z75">
+        <v>5.23</v>
+      </c>
       <c r="AC75" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7156,22 +8485,25 @@
       <c r="AG75">
         <v>7.491633892059326</v>
       </c>
-      <c r="AH75" t="s">
-        <v>177</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688110</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>9.52</v>
@@ -7189,7 +8521,7 @@
         <v>224742.63</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7230,8 +8562,23 @@
       <c r="W76">
         <v>-1.04</v>
       </c>
+      <c r="X76">
+        <v>19.99</v>
+      </c>
+      <c r="Y76">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>28.54</v>
+      </c>
       <c r="AC76" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7239,22 +8586,25 @@
       <c r="AG76">
         <v>3.869646787643433</v>
       </c>
-      <c r="AH76" t="s">
-        <v>177</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688189</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -7272,7 +8622,7 @@
         <v>49414.36</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7313,8 +8663,23 @@
       <c r="W77">
         <v>1.59</v>
       </c>
+      <c r="X77">
+        <v>20.03</v>
+      </c>
+      <c r="Y77">
+        <v>17.14</v>
+      </c>
+      <c r="Z77">
+        <v>20.03</v>
+      </c>
       <c r="AC77" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7322,22 +8687,25 @@
       <c r="AG77">
         <v>18.51277542114258</v>
       </c>
-      <c r="AH77" t="s">
-        <v>178</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688202</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-3.1</v>
@@ -7355,7 +8723,7 @@
         <v>25552.67</v>
       </c>
       <c r="J78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K78">
         <v>17</v>
@@ -7396,8 +8764,23 @@
       <c r="W78">
         <v>-0.44</v>
       </c>
+      <c r="X78">
+        <v>1.04</v>
+      </c>
+      <c r="Y78">
+        <v>65.16</v>
+      </c>
+      <c r="Z78">
+        <v>0.14</v>
+      </c>
       <c r="AC78" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7405,22 +8788,25 @@
       <c r="AG78">
         <v>7.042144775390625</v>
       </c>
-      <c r="AH78" t="s">
-        <v>177</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688210</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-3.48</v>
@@ -7438,7 +8824,7 @@
         <v>15264.38</v>
       </c>
       <c r="J79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K79">
         <v>5</v>
@@ -7479,8 +8865,23 @@
       <c r="W79">
         <v>-0.3</v>
       </c>
+      <c r="X79">
+        <v>-1.19</v>
+      </c>
+      <c r="Y79">
+        <v>35.21</v>
+      </c>
+      <c r="Z79">
+        <v>0.63</v>
+      </c>
       <c r="AC79" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7488,22 +8889,25 @@
       <c r="AG79">
         <v>4.966979503631592</v>
       </c>
-      <c r="AH79" t="s">
-        <v>177</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688221</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>2.99</v>
@@ -7521,7 +8925,7 @@
         <v>40097.97</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7562,8 +8966,23 @@
       <c r="W80">
         <v>0.05</v>
       </c>
+      <c r="X80">
+        <v>-3.38</v>
+      </c>
+      <c r="Y80">
+        <v>22.6</v>
+      </c>
+      <c r="Z80">
+        <v>-2.12</v>
+      </c>
       <c r="AC80" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7571,22 +8990,25 @@
       <c r="AG80">
         <v>0.9002295732498169</v>
       </c>
-      <c r="AH80" t="s">
-        <v>177</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688222</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>1.6</v>
@@ -7604,7 +9026,7 @@
         <v>41674.77</v>
       </c>
       <c r="J81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K81">
         <v>9</v>
@@ -7645,8 +9067,23 @@
       <c r="W81">
         <v>0.1</v>
       </c>
+      <c r="X81">
+        <v>-0.89</v>
+      </c>
+      <c r="Y81">
+        <v>24.2</v>
+      </c>
+      <c r="Z81">
+        <v>0.41</v>
+      </c>
       <c r="AC81" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7654,22 +9091,25 @@
       <c r="AG81">
         <v>7.192380905151367</v>
       </c>
-      <c r="AH81" t="s">
-        <v>177</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688313</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-9.08</v>
@@ -7687,7 +9127,7 @@
         <v>170540.04</v>
       </c>
       <c r="J82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K82">
         <v>31</v>
@@ -7728,8 +9168,23 @@
       <c r="W82">
         <v>-0.78</v>
       </c>
+      <c r="X82">
+        <v>-12.46</v>
+      </c>
+      <c r="Y82">
+        <v>64.28</v>
+      </c>
+      <c r="Z82">
+        <v>5.71</v>
+      </c>
       <c r="AC82" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7737,22 +9192,25 @@
       <c r="AG82">
         <v>5.399051666259766</v>
       </c>
-      <c r="AH82" t="s">
-        <v>177</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688425</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.15</v>
@@ -7770,7 +9228,7 @@
         <v>79622.59</v>
       </c>
       <c r="J83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K83">
         <v>5</v>
@@ -7811,8 +9269,23 @@
       <c r="W83">
         <v>-0.06</v>
       </c>
+      <c r="X83">
+        <v>-3.69</v>
+      </c>
+      <c r="Y83">
+        <v>6.55</v>
+      </c>
+      <c r="Z83">
+        <v>-2.82</v>
+      </c>
       <c r="AC83" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7820,22 +9293,25 @@
       <c r="AG83">
         <v>6.716367244720459</v>
       </c>
-      <c r="AH83" t="s">
-        <v>177</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688499</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-4.97</v>
@@ -7853,7 +9329,7 @@
         <v>44590.27</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K84">
         <v>32</v>
@@ -7894,8 +9370,23 @@
       <c r="W84">
         <v>-0.37</v>
       </c>
+      <c r="X84">
+        <v>-2.95</v>
+      </c>
+      <c r="Y84">
+        <v>54.41</v>
+      </c>
+      <c r="Z84">
+        <v>1.3</v>
+      </c>
       <c r="AC84" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7903,22 +9394,25 @@
       <c r="AG84">
         <v>7.044572830200195</v>
       </c>
-      <c r="AH84" t="s">
-        <v>177</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688502</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.25</v>
@@ -7936,7 +9430,7 @@
         <v>30936.73</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -7977,8 +9471,23 @@
       <c r="W85">
         <v>0.16</v>
       </c>
+      <c r="X85">
+        <v>-4.51</v>
+      </c>
+      <c r="Y85">
+        <v>348.88</v>
+      </c>
+      <c r="Z85">
+        <v>0.6</v>
+      </c>
       <c r="AC85" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7986,22 +9495,25 @@
       <c r="AG85">
         <v>4.22605037689209</v>
       </c>
-      <c r="AH85" t="s">
-        <v>177</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688556</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-3.09</v>
@@ -8019,7 +9531,7 @@
         <v>23779.04</v>
       </c>
       <c r="J86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -8060,8 +9572,23 @@
       <c r="W86">
         <v>-0.38</v>
       </c>
+      <c r="X86">
+        <v>-1.32</v>
+      </c>
+      <c r="Y86">
+        <v>11.34</v>
+      </c>
+      <c r="Z86">
+        <v>6.38</v>
+      </c>
       <c r="AC86" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8069,22 +9596,25 @@
       <c r="AG86">
         <v>4.645424842834473</v>
       </c>
-      <c r="AH86" t="s">
-        <v>177</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688603</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>1.13</v>
@@ -8102,7 +9632,7 @@
         <v>30510.6</v>
       </c>
       <c r="J87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8143,8 +9673,23 @@
       <c r="W87">
         <v>0.37</v>
       </c>
+      <c r="X87">
+        <v>1.97</v>
+      </c>
+      <c r="Y87">
+        <v>70</v>
+      </c>
+      <c r="Z87">
+        <v>10.48</v>
+      </c>
       <c r="AC87" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8152,22 +9697,25 @@
       <c r="AG87">
         <v>4.011691093444824</v>
       </c>
-      <c r="AH87" t="s">
-        <v>177</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688630</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-4.08</v>
@@ -8185,7 +9733,7 @@
         <v>98937.97</v>
       </c>
       <c r="J88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K88">
         <v>5</v>
@@ -8226,8 +9774,23 @@
       <c r="W88">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X88">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="Y88">
+        <v>134.2</v>
+      </c>
+      <c r="Z88">
+        <v>10.51</v>
+      </c>
       <c r="AC88" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8235,22 +9798,25 @@
       <c r="AG88">
         <v>5.552603244781494</v>
       </c>
-      <c r="AH88" t="s">
-        <v>177</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688660</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-2.16</v>
@@ -8268,7 +9834,7 @@
         <v>48521.36</v>
       </c>
       <c r="J89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K89">
         <v>6</v>
@@ -8309,8 +9875,23 @@
       <c r="W89">
         <v>-0.09</v>
       </c>
+      <c r="X89">
+        <v>-16.61</v>
+      </c>
+      <c r="Y89">
+        <v>15.91</v>
+      </c>
+      <c r="Z89">
+        <v>-2.33</v>
+      </c>
       <c r="AC89" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8318,8 +9899,11 @@
       <c r="AG89">
         <v>3.539109230041504</v>
       </c>
-      <c r="AH89" t="s">
-        <v>177</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
